--- a/Assets/Scripts/1.Abilities/Effects/Resources/Documents/Ability/TraitsInfo.xlsx
+++ b/Assets/Scripts/1.Abilities/Effects/Resources/Documents/Ability/TraitsInfo.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Effects\Resources\Documents\Ability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7783F36A-ACD9-4613-8017-EB0245E1E1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F12002A-ADDA-4C90-A632-94C4207BC18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="7140" windowWidth="24900" windowHeight="11860" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
+    <workbookView xWindow="15220" yWindow="6410" windowWidth="24900" windowHeight="11860" activeTab="5" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
   </bookViews>
   <sheets>
-    <sheet name="Attribute" sheetId="5" r:id="rId1"/>
-    <sheet name="AttributeDatabase" sheetId="10" r:id="rId2"/>
-    <sheet name="LootChance" sheetId="9" r:id="rId3"/>
+    <sheet name="AttributeDatabase" sheetId="10" r:id="rId1"/>
+    <sheet name="NpcAttributes" sheetId="5" r:id="rId2"/>
+    <sheet name="NpcLootChance" sheetId="9" r:id="rId3"/>
+    <sheet name="ItemAttributes" sheetId="13" r:id="rId4"/>
+    <sheet name="EquipmentAttributes" sheetId="12" r:id="rId5"/>
+    <sheet name="PetAttributes" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +314,10 @@
   </si>
   <si>
     <t>MotivationSkills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,11 +684,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D0899B-1E6E-4B35-B2C2-CD0E5C10D5D7}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" activeCellId="1" sqref="D17 G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC57950A-9E23-4278-A211-D37973D388E6}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -787,214 +988,20 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D0899B-1E6E-4B35-B2C2-CD0E5C10D5D7}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1003,7 +1010,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="F13" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1062,6 +1069,353 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2622E48-3E74-4866-8689-B6BF9A24F6B0}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964BA327-9FC1-435B-B5E6-E49DC351CEE6}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B821DE69-9736-4864-A514-1EE2E717590E}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Scripts/1.Abilities/Effects/Resources/Documents/Ability/TraitsInfo.xlsx
+++ b/Assets/Scripts/1.Abilities/Effects/Resources/Documents/Ability/TraitsInfo.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Effects\Resources\Documents\Ability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F12002A-ADDA-4C90-A632-94C4207BC18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F6A08A-CBB3-4331-8CA8-182167A6A27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="6410" windowWidth="24900" windowHeight="11860" activeTab="5" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
+    <workbookView xWindow="11950" yWindow="4300" windowWidth="24900" windowHeight="16010" activeTab="2" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
   </bookViews>
   <sheets>
     <sheet name="AttributeDatabase" sheetId="10" r:id="rId1"/>
-    <sheet name="NpcAttributes" sheetId="5" r:id="rId2"/>
-    <sheet name="NpcLootChance" sheetId="9" r:id="rId3"/>
-    <sheet name="ItemAttributes" sheetId="13" r:id="rId4"/>
-    <sheet name="EquipmentAttributes" sheetId="12" r:id="rId5"/>
-    <sheet name="PetAttributes" sheetId="11" r:id="rId6"/>
+    <sheet name="EnhanceInfo" sheetId="16" r:id="rId2"/>
+    <sheet name="GrowInfo" sheetId="17" r:id="rId3"/>
+    <sheet name="AchievementAttributes" sheetId="14" r:id="rId4"/>
+    <sheet name="NpcAttributes" sheetId="5" r:id="rId5"/>
+    <sheet name="NpcLootChance" sheetId="9" r:id="rId6"/>
+    <sheet name="ItemAttributes" sheetId="15" r:id="rId7"/>
+    <sheet name="StatusItemAttributes" sheetId="13" r:id="rId8"/>
+    <sheet name="EquipmentAttributes" sheetId="12" r:id="rId9"/>
+    <sheet name="PetAttributes" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +322,34 @@
   </si>
   <si>
     <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsQuestItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxExp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,12 +909,306 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B821DE69-9736-4864-A514-1EE2E717590E}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793B9F2E-6403-4F63-A632-EC19EED7AF8E}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F542D6D-50D7-470D-B268-71B2B7F9F622}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469B0A55-B9FF-4547-B1BE-4417B68720AB}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC57950A-9E23-4278-A211-D37973D388E6}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="A1:XFD1048576"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1005,7 +1331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72042D48-B804-41C9-A2ED-6F32641A601D}">
   <dimension ref="A1:O1"/>
   <sheetViews>
@@ -1074,19 +1400,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2622E48-3E74-4866-8689-B6BF9A24F6B0}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B33B8B3-7A4B-435D-B8AD-0BD205F3850D}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="3" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -1103,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1171,35 +1497,34 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964BA327-9FC1-435B-B5E6-E49DC351CEE6}">
-  <dimension ref="A1:L11"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2622E48-3E74-4866-8689-B6BF9A24F6B0}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="7" width="13.33203125" customWidth="1"/>
+    <col min="3" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1213,112 +1538,109 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B821DE69-9736-4864-A514-1EE2E717590E}">
-  <dimension ref="A1:L11"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964BA327-9FC1-435B-B5E6-E49DC351CEE6}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="7" width="13.33203125" customWidth="1"/>
+    <col min="3" max="6" width="11" customWidth="1"/>
+    <col min="7" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1326,95 +1648,104 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
